--- a/Financials/Quarterly/PVH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PVH_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC34332-8BE2-44ED-B7BC-7A12C71B46D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVH" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>PVH</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43408</v>
+      </c>
+      <c r="E7" s="2">
         <v>43317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43037</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42946</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42764</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2524500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2333700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2314600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2498900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2357000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2069900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1989000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2107700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2244300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1159700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1036700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1023600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1129900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1059700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>922600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>908200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>969700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1052700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1297000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1291000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1369000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1297300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1147300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1080800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1138000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1191600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,8 +854,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +884,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,37 +916,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +980,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +993,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2242200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2102300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2070300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2440900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2076300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1889400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1875800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1954000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2046400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E18" s="3">
         <v>231400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>244300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>280700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>180500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>113200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>153700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1071,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E21" s="3">
         <v>315600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>328500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>145900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>363300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>262300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>239800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>284300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1071,86 +1145,95 @@
         <v>30300</v>
       </c>
       <c r="E22" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F22" s="3">
         <v>29400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>30900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>30400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>252900</v>
+      </c>
+      <c r="E23" s="3">
         <v>202300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>215900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>249800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>150800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>84500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>125000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>168700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E24" s="3">
         <v>37600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>90900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1261,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>242600</v>
+      </c>
+      <c r="E26" s="3">
         <v>164700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>178900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-65800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>238700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>119400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>70100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>126100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E27" s="3">
         <v>165200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>179400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-65200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>239200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>119700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>70400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1357,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1276,11 +1371,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>173700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1294,8 +1389,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1421,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1453,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E33" s="3">
         <v>165200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>179400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>108500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>239200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>119700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>70400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1549,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E35" s="3">
         <v>165200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>179400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>108500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>239200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>119700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>70400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43408</v>
+      </c>
+      <c r="E38" s="2">
         <v>43317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43037</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42946</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42764</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1634,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,37 +1648,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>398500</v>
+      </c>
+      <c r="E41" s="3">
         <v>431100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>434500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>493900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>612300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>559400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>490900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>730100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>662400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1586,211 +1710,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>965600</v>
+      </c>
+      <c r="E43" s="3">
         <v>731600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>812300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>696400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>857100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>672600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>712500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>641400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>788400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1686900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1731000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1524900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1591300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1466200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1498600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1253800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1317900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1258300</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E45" s="3">
         <v>272300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>269900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>249200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>208500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>204900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>198000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>190200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>239000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3307800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3166000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3041600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3030800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3144100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2935500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2655200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2879600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2948100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E47" s="3">
         <v>201300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>198600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>208400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>186300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>191000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>182000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>180000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>923700</v>
+      </c>
+      <c r="E48" s="3">
         <v>881300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>873500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>899800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>821200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>805800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>751600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>759900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>730200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7230200</v>
+      </c>
+      <c r="E49" s="3">
         <v>7284600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7434900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7561300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7336000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7348700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7163400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7079900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7154800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1966,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1998,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E52" s="3">
         <v>164500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>166000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>185400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>170600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>172900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>160100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>168500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2062,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11830900</v>
+      </c>
+      <c r="E54" s="3">
         <v>11697700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11714600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11885700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11658200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11453900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10912300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11067900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11068600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2110,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2124,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>752500</v>
+      </c>
+      <c r="E57" s="3">
         <v>922600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>670500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>889800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>681300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>767100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>546700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>682600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>496500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>276700</v>
+      </c>
+      <c r="E58" s="3">
         <v>85400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>254500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>207500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>869400</v>
+      </c>
+      <c r="E59" s="3">
         <v>827700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>802100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>962300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>837500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>848100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>789000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>863100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>839100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1898600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1835700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1727100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1871600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1726300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1633200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1378200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1564800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1356400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2878300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2893500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3013200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3061300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3182700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3185700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3157100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3197300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3303100</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1372300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1402100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1408200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1414400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1496800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1536700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1498600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1499300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1613600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2346,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2378,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2410,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6149700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6132300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6150000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6349300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6408400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6358700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6037300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6263400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6274300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2458,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2488,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2520,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2552,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2584,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4191400</v>
+      </c>
+      <c r="E72" s="3">
         <v>3951100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3788800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3625200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3514700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3278400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3161700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3098000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2997300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2648,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2680,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2712,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5681200</v>
+      </c>
+      <c r="E76" s="3">
         <v>5565400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5564600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5536400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5249800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5095200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4875000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4804500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4794300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2776,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43408</v>
+      </c>
+      <c r="E80" s="2">
         <v>43317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43037</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42946</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42764</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E81" s="3">
         <v>165200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>179400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>108500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>239200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>119700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>70400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2861,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E83" s="3">
         <v>83000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>85900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>81200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>80600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>84200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>84400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2923,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2955,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2987,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3019,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3051,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>436600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-125700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>456700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>247800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-44900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>378400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3099,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-88200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-122900</v>
       </c>
-      <c r="G91" s="3">
-        <v>76800</v>
-      </c>
       <c r="H91" s="3">
-        <v>-175200</v>
+        <v>-79200</v>
       </c>
       <c r="I91" s="3">
-        <v>-136800</v>
+        <v>-87600</v>
       </c>
       <c r="J91" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-83600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3161,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3193,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-88200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-92600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-147100</v>
-      </c>
       <c r="G94" s="3">
-        <v>-132200</v>
+        <v>-185600</v>
       </c>
       <c r="H94" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-88400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-115200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-95200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3241,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-5900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-5900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3303,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3335,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3367,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-338200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>166000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-443900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>119500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-89500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-94300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-192800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>15900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-118400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>52900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>68500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-239200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>67700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-79300</v>
       </c>
     </row>

--- a/Financials/Quarterly/PVH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PVH_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC34332-8BE2-44ED-B7BC-7A12C71B46D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="PVH" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>PVH</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,160 +654,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43772</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43681</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43590</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43499</v>
+      </c>
+      <c r="H7" s="2">
         <v>43408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43037</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42946</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42855</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42764</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2587700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2364200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2356300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2484000</v>
+      </c>
+      <c r="H8" s="3">
         <v>2524500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>2333700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>2314600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>2498900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>2357000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>2069900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>1989000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>2107700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>2244300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1181500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1075800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1060400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1128500</v>
+      </c>
+      <c r="H9" s="3">
         <v>1159700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="I9" s="3">
         <v>1036700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="3">
         <v>1023600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="K9" s="3">
         <v>1129900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>1059700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>922600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>908200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>969700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>1052700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1406200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1288400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1295900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1355500</v>
+      </c>
+      <c r="H10" s="3">
         <v>1364800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="I10" s="3">
         <v>1297000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>1291000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="K10" s="3">
         <v>1369000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1297300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>1147300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1080800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>1138000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>1191600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -887,8 +904,20 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,63 +948,87 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-2600</v>
+        <v>-113100</v>
       </c>
       <c r="F14" s="3">
-        <v>-2500</v>
+        <v>5200</v>
       </c>
       <c r="G14" s="3">
-        <v>29200</v>
+        <v>13200</v>
       </c>
       <c r="H14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>4700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>29200</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2200</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -983,8 +1036,20 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,72 +1059,100 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2318200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2114400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2221200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2350300</v>
+      </c>
+      <c r="H17" s="3">
         <v>2242200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="I17" s="3">
         <v>2102300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>2070300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="K17" s="3">
         <v>2440900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>2076300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>1889400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>1875800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>1954000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>2046400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>269500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>249800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>135100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>133700</v>
+      </c>
+      <c r="H18" s="3">
         <v>282300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>231400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>244300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>58000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>280700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>180500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>113200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>153700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>197900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,168 +1165,232 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1400</v>
       </c>
       <c r="I20" s="3">
         <v>1200</v>
       </c>
       <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>352500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>329500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>212700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>222100</v>
+      </c>
+      <c r="H21" s="3">
         <v>365000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>315600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>328500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>145900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>363300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>262300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>192100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>239800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>284300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>30800</v>
+      </c>
+      <c r="H22" s="3">
         <v>30300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="I22" s="3">
         <v>30300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="J22" s="3">
         <v>29400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="K22" s="3">
         <v>34900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>32300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>30900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>30400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>30600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>222800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>105200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>104500</v>
+      </c>
+      <c r="H23" s="3">
         <v>252900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>202300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>215900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>25100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>249800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>150800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>84500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>125000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>168700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="H24" s="3">
         <v>10300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="I24" s="3">
         <v>37600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
         <v>37000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="K24" s="3">
         <v>90900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>11100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>31400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>14400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>24500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,72 +1421,108 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>193100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>81600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>133700</v>
+      </c>
+      <c r="H26" s="3">
         <v>242600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>164700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>178900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-65800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>238700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>119400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>70100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>100500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>126100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>193500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>82000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>134000</v>
+      </c>
+      <c r="H27" s="3">
         <v>243100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>165200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>179400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-65200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>239200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>119700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>70400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>100700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,8 +1553,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>173700</v>
+        <v>24700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1386,14 +1591,26 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>173700</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1641,20 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1456,72 +1685,108 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1400</v>
       </c>
       <c r="I32" s="3">
         <v>-1200</v>
       </c>
       <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>193500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>82000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>158700</v>
+      </c>
+      <c r="H33" s="3">
         <v>243100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>165200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>179400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>108500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>239200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>119700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>70400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>100700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1552,77 +1817,113 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>193500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>82000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>158700</v>
+      </c>
+      <c r="H35" s="3">
         <v>243100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>165200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>179400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>108500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>239200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>119700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>70400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>100700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43772</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43681</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43590</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43499</v>
+      </c>
+      <c r="H38" s="2">
         <v>43408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43037</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42946</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42855</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42764</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1936,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,40 +1954,56 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>555200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>433500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>494300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>452000</v>
+      </c>
+      <c r="H41" s="3">
         <v>398500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>431100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>434500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>493900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>612300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>559400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>490900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>730100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>662400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,232 +2034,328 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>998800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>808900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>876000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>803800</v>
+      </c>
+      <c r="H43" s="3">
         <v>965600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>731600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
         <v>812300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="K43" s="3">
         <v>696400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>857100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>672600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>712500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>641400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>788400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1768100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1862100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1608400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1732400</v>
+      </c>
+      <c r="H44" s="3">
         <v>1686900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="I44" s="3">
         <v>1731000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="J44" s="3">
         <v>1524900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
         <v>1591300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>1466200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>1498600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>1253800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>1317900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>1258300</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>294100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>274700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>250400</v>
+      </c>
+      <c r="H45" s="3">
         <v>256800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
         <v>272300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
         <v>269900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="K45" s="3">
         <v>249200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>208500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>204900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>198000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>190200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>239000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3582100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3398600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3253400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3238600</v>
+      </c>
+      <c r="H46" s="3">
         <v>3307800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>3166000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>3041600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>3030800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>3144100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>2935500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>2655200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>2879600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>2948100</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>146600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>208500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>207100</v>
+      </c>
+      <c r="H47" s="3">
         <v>198000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="I47" s="3">
         <v>201300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="J47" s="3">
         <v>198600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="K47" s="3">
         <v>208400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>186300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>191000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>182000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>180000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>119200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2642800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2634100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2568300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>984500</v>
+      </c>
+      <c r="H48" s="3">
         <v>923700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>881300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>873500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>899800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>821200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>805800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>751600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>759900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>730200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7458100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7461100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7149700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7239700</v>
+      </c>
+      <c r="H49" s="3">
         <v>7230200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>7284600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="J49" s="3">
         <v>7434900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="K49" s="3">
         <v>7561300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>7336000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>7348700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>7163400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>7079900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>7154800</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,8 +2386,20 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,40 +2430,64 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>187800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>180500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>175100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>193800</v>
+      </c>
+      <c r="H52" s="3">
         <v>171200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="I52" s="3">
         <v>164500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="J52" s="3">
         <v>166000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="K52" s="3">
         <v>185400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>170600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>172900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>160100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>168500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>116300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2065,40 +2518,64 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14019200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13820900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>13355000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11863700</v>
+      </c>
+      <c r="H54" s="3">
         <v>11830900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>11697700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>11714600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>11885700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>11658200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>11453900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>10912300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>11067900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>11068600</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2111,8 +2588,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2125,200 +2606,276 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>780500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>930200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>696200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>924200</v>
+      </c>
+      <c r="H57" s="3">
         <v>752500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>922600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>670500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>889800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>681300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>767100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>546700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>682600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>496500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>433500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>229100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>335400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H58" s="3">
         <v>276700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>85400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="J58" s="3">
         <v>254500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="K58" s="3">
         <v>19500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>207500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>18000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>42500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>19100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1338700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1268400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>956900</v>
+      </c>
+      <c r="H59" s="3">
         <v>869400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>827700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>802100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>962300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>837500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>848100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>789000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>863100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>839100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2552700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2427700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2206600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1893900</v>
+      </c>
+      <c r="H60" s="3">
         <v>1898600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>1835700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>1727100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>1871600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>1726300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>1633200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>1378200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>1564800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>1356400</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2749500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2753600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2770400</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2819400</v>
+      </c>
+      <c r="H61" s="3">
         <v>2878300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>2893500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>3013200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>3061300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>3182700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>3185700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>3157100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>3197300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>3303100</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2732800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2768500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2616700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1322400</v>
+      </c>
+      <c r="H62" s="3">
         <v>1372300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>1402100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>1408200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="K62" s="3">
         <v>1414400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>1496800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>1536700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>1498600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>1499300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>1613600</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2349,8 +2906,20 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2950,20 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2413,40 +2994,64 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8034100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7949200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7593500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>6035900</v>
+      </c>
+      <c r="H66" s="3">
         <v>6149700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>6132300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>6150000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>6349300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>6408400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>6358700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>6037300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>6263400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>6274300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +3064,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +3100,20 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +3144,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,8 +3188,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2587,40 +3232,64 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4820400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4614000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4423300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4350100</v>
+      </c>
+      <c r="H72" s="3">
         <v>4191400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>3951100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>3788800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>3625200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>3514700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>3278400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>3161700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>3098000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>2997300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +3320,20 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +3364,20 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2715,40 +3408,64 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5985100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5871700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5761500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5827800</v>
+      </c>
+      <c r="H76" s="3">
         <v>5681200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>5565400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>5564600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>5536400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>5249800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>5095200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>4875000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>4804500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>4794300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2779,77 +3496,113 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43772</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43681</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43590</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43499</v>
+      </c>
+      <c r="H80" s="2">
         <v>43408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43037</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42946</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42855</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42764</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42673</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>193500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>82000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>158700</v>
+      </c>
+      <c r="H81" s="3">
         <v>243100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>165200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>179400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>108500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>239200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>119700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>70400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>100700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>126200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2862,40 +3615,56 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>76500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>86800</v>
+      </c>
+      <c r="H83" s="3">
         <v>81800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="I83" s="3">
         <v>83000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="J83" s="3">
         <v>83200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="K83" s="3">
         <v>85900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>81200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>80600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>77200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>84200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>84400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3695,20 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3739,20 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3783,20 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,8 +3827,20 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3054,40 +3871,64 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>391100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>547600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>436600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>-125700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>456700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>40200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>247800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-44900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>378400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>167700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3100,40 +3941,56 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-104900</v>
+        <v>-82600</v>
       </c>
       <c r="E91" s="3">
-        <v>-88200</v>
+        <v>-73800</v>
       </c>
       <c r="F91" s="3">
         <v>-76700</v>
       </c>
       <c r="G91" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-122900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-79200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-87600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-68400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-83600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-60200</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,8 +4021,20 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3196,40 +4065,64 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-206700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-104900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="I94" s="3">
         <v>-88200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
         <v>-92600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="K94" s="3">
         <v>-185600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-93700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-88400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-91400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-115200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-95200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,8 +4135,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3251,31 +4148,43 @@
         <v>-2800</v>
       </c>
       <c r="E96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3000</v>
       </c>
       <c r="J96" s="3">
         <v>-5900</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +4215,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,8 +4259,20 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3370,100 +4303,148 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-242100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>198300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-385200</v>
+      </c>
+      <c r="H100" s="3">
         <v>78900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>-338200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>166000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>-443900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>119500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-89500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-94300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-192800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-145500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="I101" s="3">
         <v>-13600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="J101" s="3">
         <v>-7100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="K101" s="3">
         <v>15900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>11700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>42300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>53500</v>
+      </c>
+      <c r="H102" s="3">
         <v>-32600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>-59400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>-118400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>52900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>68500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-239200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>67700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-79300</v>
       </c>
     </row>
